--- a/Design/Cost.xlsx
+++ b/Design/Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roody\Documents\GitHub\Beggar-Office-Jsp\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D8ED30-CD9C-43C5-B489-746DB1059960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5626B1CD-A0C0-4AF0-9A6F-68DEBE7C5036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{CFA388DC-BCBE-4ADA-844D-75964697FDAF}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="28800" windowHeight="17690" xr2:uid="{CFA388DC-BCBE-4ADA-844D-75964697FDAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Lazy</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Scientist</t>
+  </si>
+  <si>
+    <t>Mad Scientist</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,11 +160,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -172,6 +186,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,18 +503,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F9DBC9-7B89-49EE-8761-37BA881D6D69}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="59.90625" customWidth="1"/>
     <col min="2" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="34.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -530,7 +547,7 @@
         <v>15000</v>
       </c>
       <c r="C2" s="2">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="D2" s="2">
         <v>100000</v>
@@ -664,7 +681,7 @@
         <v>15000</v>
       </c>
       <c r="C8" s="2">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="D8" s="2">
         <v>250000</v>
@@ -715,7 +732,7 @@
         <v>2400000</v>
       </c>
       <c r="F10" s="2">
-        <v>10500000</v>
+        <v>10000000</v>
       </c>
       <c r="G10" s="2">
         <v>125000000</v>
@@ -745,109 +762,121 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2">
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>15000</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>28000</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>95000</v>
       </c>
-      <c r="E12" s="2">
-        <v>430000</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E13" s="2">
+        <v>370000</v>
+      </c>
+      <c r="F13" s="2">
         <v>2000000</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>25000000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="7">
         <v>5000000</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3">
+      <c r="C14" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="D14" s="3">
         <v>15500000</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3">
+      <c r="E14" s="4"/>
+      <c r="F14" s="3">
         <v>260000000</v>
       </c>
-      <c r="G13" s="3">
-        <v>5800000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>55000000</v>
-      </c>
-      <c r="F14" s="2">
-        <v>260000000</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>5800000000</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3">
-        <v>310000</v>
-      </c>
-      <c r="C15" s="3">
-        <v>980000</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3050000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>10500000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>40000000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>520000000</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>15500000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>55000000</v>
+      </c>
+      <c r="F15" s="2">
+        <v>260000000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5800000000</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3">
+        <v>310000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>950000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3050000</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10500000</v>
+      </c>
+      <c r="F16" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="G16" s="3">
+        <v>520000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>60000</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>180000</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>640000</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>2400000</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F17" s="2">
         <v>10000000</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>125000000</v>
       </c>
     </row>

--- a/Design/Cost.xlsx
+++ b/Design/Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roody\Documents\GitHub\Beggar-Office-Jsp\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5626B1CD-A0C0-4AF0-9A6F-68DEBE7C5036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D57997-9AB6-4CE9-9B9E-724DAB0F49E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="28800" windowHeight="17690" xr2:uid="{CFA388DC-BCBE-4ADA-844D-75964697FDAF}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="18300" xr2:uid="{CFA388DC-BCBE-4ADA-844D-75964697FDAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -506,7 +500,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,7 +553,7 @@
         <v>2000000</v>
       </c>
       <c r="G2" s="2">
-        <v>28000000</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">

--- a/Design/Cost.xlsx
+++ b/Design/Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roody\Documents\GitHub\Beggar-Office-Jsp\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rudy1\Documents\GitHub\Virtual-Beggar-Servlet\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D57997-9AB6-4CE9-9B9E-724DAB0F49E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CEF8A7-99EA-4CEA-8653-E8A34E197EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="18300" xr2:uid="{CFA388DC-BCBE-4ADA-844D-75964697FDAF}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{CFA388DC-BCBE-4ADA-844D-75964697FDAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -500,15 +500,14 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="59.90625" customWidth="1"/>
     <col min="2" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="34.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -687,7 +686,7 @@
         <v>5000000</v>
       </c>
       <c r="G8" s="2">
-        <v>28000000</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
@@ -758,6 +757,9 @@
     <row r="12" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A12" s="8" t="s">
         <v>21</v>
+      </c>
+      <c r="D12" s="2">
+        <v>120000000</v>
       </c>
       <c r="E12" s="2">
         <v>400000000</v>

--- a/Design/Cost.xlsx
+++ b/Design/Cost.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rudy1\Documents\GitHub\Virtual-Beggar-Servlet\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roaudain\Documents\GitHub\Virtual-Beggar-Servlet\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CEF8A7-99EA-4CEA-8653-E8A34E197EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{CFA388DC-BCBE-4ADA-844D-75964697FDAF}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -96,8 +95,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,15 +105,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="26"/>
+      <sz val="12"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -169,20 +175,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,383 +503,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F9DBC9-7B89-49EE-8761-37BA881D6D69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.90625" customWidth="1"/>
-    <col min="2" max="3" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="34.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="79" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>15000</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>25000</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>100000</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>370000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>2000000</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>22000000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>90</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>160</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>270</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>450</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>850</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>1700</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
         <v>950000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>3050000</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>10500000</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>40000000</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>500000000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>2500</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>5000</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>20000</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>70000</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
         <v>2000000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>15000</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>25000</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>100000</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>430000</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>2000000</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>22000000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>500000</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>950000</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>3100000</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>10500000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>40000000</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>520000000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>15000</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>25000</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>250000</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>430000</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>5000000</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>22000000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>2500</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>5000</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>20000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>100000</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A10" s="5" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>100000</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>180000</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>640000</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>2400000</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>10000000</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>125000000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>320000</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>950000</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>3050000</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>10500000</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>40000000</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <v>520000000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3">
         <v>120000000</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>400000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A13" s="5" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>15000</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>28000</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>95000</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>370000</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>2000000</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>25000000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>5000000</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>5000000</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>15500000</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3">
+      <c r="E14" s="9"/>
+      <c r="F14" s="4">
         <v>260000000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>5800000000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
         <v>5000000</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>15500000</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>55000000</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>260000000</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>5800000000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>310000</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>950000</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>3050000</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>10500000</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>40000000</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <v>520000000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="39.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>60000</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>180000</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>640000</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>2400000</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>10000000</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>125000000</v>
       </c>
     </row>

--- a/Design/Cost.xlsx
+++ b/Design/Cost.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Design/Cost.xlsx
+++ b/Design/Cost.xlsx
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -189,7 +189,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +506,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -515,7 +514,7 @@
     <col min="1" max="1" width="25.81640625" customWidth="1"/>
     <col min="2" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
     <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -774,7 +773,9 @@
       <c r="E12" s="3">
         <v>400000000</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="3">
+        <v>2000000000</v>
+      </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.5">
@@ -813,7 +814,9 @@
       <c r="D14" s="4">
         <v>15500000</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="4">
+        <v>55000000</v>
+      </c>
       <c r="F14" s="4">
         <v>260000000</v>
       </c>

--- a/Design/Cost.xlsx
+++ b/Design/Cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,8 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -606,7 +607,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>

--- a/Design/Cost.xlsx
+++ b/Design/Cost.xlsx
@@ -506,8 +506,8 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,7 +607,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -642,7 +642,7 @@
         <v>100000</v>
       </c>
       <c r="E6" s="3">
-        <v>430000</v>
+        <v>370000</v>
       </c>
       <c r="F6" s="3">
         <v>2000000</v>

--- a/Design/Cost.xlsx
+++ b/Design/Cost.xlsx
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,7 +516,7 @@
     <col min="2" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.5">
@@ -777,7 +777,9 @@
       <c r="F12" s="3">
         <v>2000000000</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="4">
+        <v>48000000000</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">

--- a/Design/Cost.xlsx
+++ b/Design/Cost.xlsx
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,7 +688,7 @@
         <v>250000</v>
       </c>
       <c r="E8" s="3">
-        <v>430000</v>
+        <v>370000</v>
       </c>
       <c r="F8" s="3">
         <v>5000000</v>

--- a/Design/Cost.xlsx
+++ b/Design/Cost.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roaudain\Documents\GitHub\Virtual-Beggar-Servlet\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rudy1\Documents\GitHub\Virtual-Beggar-Servlet\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34706318-7C8E-4FDC-A5D3-7809F9DFB21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="11960"/>
+    <workbookView xWindow="-60" yWindow="120" windowWidth="19260" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -183,12 +184,11 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -510,16 +510,16 @@
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" customWidth="1"/>
-    <col min="2" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -563,7 +563,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -586,7 +586,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="39" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -607,7 +607,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -628,7 +628,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -651,7 +651,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -674,7 +674,7 @@
         <v>520000000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -697,7 +697,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -739,7 +739,7 @@
         <v>125000000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -762,7 +762,7 @@
         <v>520000000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -781,7 +781,7 @@
         <v>48000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -804,14 +804,14 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>5000000</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="4">
         <v>5000000</v>
       </c>
       <c r="D14" s="4">
@@ -827,7 +827,7 @@
         <v>5800000000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -848,7 +848,7 @@
         <v>5800000000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -871,7 +871,7 @@
         <v>520000000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>

--- a/Design/Cost.xlsx
+++ b/Design/Cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rudy1\Documents\GitHub\Virtual-Beggar-Servlet\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34706318-7C8E-4FDC-A5D3-7809F9DFB21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5416BE3E-1167-4E46-B4D4-A4C78412F439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="120" windowWidth="19260" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19260" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>40000000</v>
       </c>
       <c r="G4" s="3">
-        <v>500000000</v>
+        <v>520000000</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -831,7 +831,9 @@
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>1600000</v>
+      </c>
       <c r="C15" s="3">
         <v>5000000</v>
       </c>

--- a/Design/Cost.xlsx
+++ b/Design/Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rudy1\Documents\GitHub\Virtual-Beggar-Servlet\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5416BE3E-1167-4E46-B4D4-A4C78412F439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E310F232-2AB7-489E-AF68-E2A3FC54D9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19260" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19140" yWindow="30" windowWidth="19260" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -507,13 +507,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
@@ -766,7 +767,9 @@
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="3">
+        <v>12000000</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="3">
         <v>120000000</v>

--- a/Design/Cost.xlsx
+++ b/Design/Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rudy1\Documents\GitHub\Virtual-Beggar-Servlet\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E310F232-2AB7-489E-AF68-E2A3FC54D9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6FB770-51C8-40F4-BB21-09B2B5FEA583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19140" yWindow="30" windowWidth="19260" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="90" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +812,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>5000000</v>
+        <v>1600000</v>
       </c>
       <c r="C14" s="4">
         <v>5000000</v>

--- a/Design/Cost.xlsx
+++ b/Design/Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rudy1\Documents\GitHub\Virtual-Beggar-Servlet\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6FB770-51C8-40F4-BB21-09B2B5FEA583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557999B3-A5B5-482C-9726-31931F1AE280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="90" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19410" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
         <v>950000</v>
       </c>
       <c r="D7" s="4">
-        <v>3100000</v>
+        <v>3050000</v>
       </c>
       <c r="E7" s="4">
         <v>10500000</v>
